--- a/(2분반)2013180035_김하늘_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/(2분반)2013180035_김하늘_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haneul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,56 +113,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://goo.gl/UZoZFf</t>
+  </si>
+  <si>
+    <t>https://goo.gl/T7teGc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://goo.gl/4qYAbU</t>
+  </si>
+  <si>
+    <t>https://goo.gl/6Uk6dq</t>
+  </si>
+  <si>
+    <t>https://goo.gl/1XSou2</t>
+  </si>
+  <si>
+    <t>https://goo.gl/aYL88h</t>
+  </si>
+  <si>
+    <t>https://goo.gl/vSL8oD</t>
+  </si>
+  <si>
+    <t>1.3inch OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,7번은 엘레파츠 제품이라 배송비 안넣었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드보드지 4절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://goo.gl/JSs60e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://goo.gl/p3ZPJI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼이 재료실에 있다하셔서 수정하였습니다. 버튼은 총 5개 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>아두이노 푸쉬 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://goo.gl/UZoZFf</t>
-  </si>
-  <si>
-    <t>https://goo.gl/T7teGc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://goo.gl/4qYAbU</t>
-  </si>
-  <si>
-    <t>https://goo.gl/6Uk6dq</t>
-  </si>
-  <si>
-    <t>https://goo.gl/1XSou2</t>
-  </si>
-  <si>
-    <t>https://goo.gl/aYL88h</t>
-  </si>
-  <si>
-    <t>https://goo.gl/vSL8oD</t>
-  </si>
-  <si>
-    <t>1.3inch OLED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6,7번은 엘레파츠 제품이라 배송비 안넣었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드보드지 4절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://goo.gl/JSs60e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://goo.gl/p3ZPJI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +215,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +325,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,29 +355,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,16 +719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>941295</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1165411</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>718218</xdr:rowOff>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -733,7 +752,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6600265" y="5849471"/>
+          <a:off x="5916707" y="9502589"/>
           <a:ext cx="1165411" cy="718218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1129,9 +1148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1145,66 +1166,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>2013180035</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1233,7 +1254,7 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2">
@@ -1245,15 +1266,15 @@
       <c r="E7" s="2">
         <v>5800</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>26</v>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2">
@@ -1265,8 +1286,8 @@
       <c r="E8" s="2">
         <v>10400</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1285,8 +1306,8 @@
       <c r="E9" s="2">
         <v>16900</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,7 +1317,7 @@
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>31500</v>
       </c>
       <c r="D10" s="2">
@@ -1305,8 +1326,8 @@
       <c r="E10" s="2">
         <v>31500</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>28</v>
+      <c r="F10" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1325,8 +1346,8 @@
       <c r="E11" s="2">
         <v>1900</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>29</v>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1345,36 +1366,17 @@
       <c r="E12" s="2">
         <v>780</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13">
-        <v>9700</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13">
-        <v>9700</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>4700</v>
@@ -1385,8 +1387,8 @@
       <c r="E14" s="2">
         <v>4700</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>24</v>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1394,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>2980</v>
@@ -1405,8 +1407,8 @@
       <c r="E15" s="2">
         <v>3460</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>34</v>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1418,7 +1420,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1427,15 +1429,41 @@
       </c>
       <c r="E17" s="1">
         <f>SUM(E7:E15)</f>
-        <v>85140</v>
+        <v>75440</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>7</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="14">
+        <v>9700</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14">
+        <v>9700</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1451,7 +1479,7 @@
     <hyperlink ref="F8" r:id="rId2"/>
     <hyperlink ref="F10" r:id="rId3"/>
     <hyperlink ref="F11" r:id="rId4"/>
-    <hyperlink ref="F13" r:id="rId5"/>
+    <hyperlink ref="F21" r:id="rId5"/>
     <hyperlink ref="F15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(2분반)2013180035_김하늘_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/(2분반)2013180035_김하늘_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -346,6 +346,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,18 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,66 +1166,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="14">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="14">
         <v>2013180035</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1440,30 +1440,30 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>7</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>9700</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>9700</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
